--- a/002.Artificial_Intelligence/第四阶段/MACHINE_LEARNING/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/MACHINE_LEARNING/汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="152">
   <si>
     <t>几大领域</t>
   </si>
@@ -141,11 +141,17 @@
     <t>为了解决：欠拟合</t>
   </si>
   <si>
-    <t xml:space="preserve">决策树
+    <t xml:space="preserve">决策树-回归问题
 </t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>决策树底层结构</t>
     </r>
     <r>
@@ -196,6 +202,9 @@
     <t>区别在于它们划分“最优特征”的方式不一样。</t>
   </si>
   <si>
+    <t>（回归问题）划分最优分割特殊的方式：均方误差。</t>
+  </si>
+  <si>
     <t xml:space="preserve">sklearn 里面的 "决策树" ,还封装了 matplotlib的。 </t>
   </si>
   <si>
@@ -226,7 +235,7 @@
     <t>单个模型得到的预测结果总是片面的</t>
   </si>
   <si>
-    <t>基于-“决策树”-集合学习</t>
+    <t>基于-“决策树”-集成学习</t>
   </si>
   <si>
     <t>Boosting类：</t>
@@ -293,6 +302,90 @@
 而且 "还随机选择部分特征"，</t>
   </si>
   <si>
+    <t>逻辑回归</t>
+  </si>
+  <si>
+    <t>"二分类"（也称为逻辑分类）是 "常见的分类方法"
+Sigmoid函数（又称逻辑函数）</t>
+  </si>
+  <si>
+    <t>负无穷，无限接近于0
+正无穷，无限接近于1</t>
+  </si>
+  <si>
+    <t>逻辑回归——二分类</t>
+  </si>
+  <si>
+    <t>主要做2分类的，</t>
+  </si>
+  <si>
+    <t>逻辑回归——多分类</t>
+  </si>
+  <si>
+    <t>multi_cass  = 'auto'根据类别判断，自动创建多个分类器。
+是不是0类别：是、不是
+是不是1类别：是、不是
+是不是2类别：是、不是</t>
+  </si>
+  <si>
+    <t>决策树-分类问题</t>
+  </si>
+  <si>
+    <t>将 "具有相同属性" 的样本划分到 "一个叶子节点下"</t>
+  </si>
+  <si>
+    <t>如何“选取最优特征”？（回归问题）</t>
+  </si>
+  <si>
+    <t>划分最优分割特征的方式：均方误差。（）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如何“选取最优特征”？（分类问题） </t>
+  </si>
+  <si>
+    <t>信息熵</t>
+  </si>
+  <si>
+    <t>信息增益："著名的ID3决策树" 学习算法就是以 "信息增益" 为 "准则" 来划分属性。（不是二叉树）</t>
+  </si>
+  <si>
+    <t>C4.5算法使用的是增益率。（不是二叉树）</t>
+  </si>
+  <si>
+    <t>cart树，在作回归时，使用的是均方误差
+在分类问题时，使用的是基尼系数。</t>
+  </si>
+  <si>
+    <t>与之前"回归问题那里"是相同的。</t>
+  </si>
+  <si>
+    <t>代码实现
+（和回归问题一样，都有，只是获取结果的方式不相同）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdaBoost </t>
+  </si>
+  <si>
+    <t>自助聚合</t>
+  </si>
+  <si>
+    <t>随机森林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>获取结果的方式：投票</t>
+  </si>
+  <si>
+    <t>"回归问题" 是去拿 "平均值"，
+而 "回归问题" 是：投票,谁的样本多就取谁。</t>
+  </si>
+  <si>
+    <t>支持向量机</t>
+  </si>
+  <si>
     <t>集合学习</t>
   </si>
   <si>
@@ -307,11 +400,138 @@
     <t>评估模型</t>
   </si>
   <si>
+    <t>回归业务</t>
+  </si>
+  <si>
     <t>sklearn.metrics
-评估模型的好坏</t>
-  </si>
-  <si>
-    <t>r2_score</t>
+评估模型的好坏
+r2_score
+分类问题的"损失函数"</t>
+  </si>
+  <si>
+    <t>分类业务</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "分类问题" 与 "回归问题" 的评估方式不一样，
+分类问题也不能使用r2得分来评估。
+</t>
+  </si>
+  <si>
+    <t>简单任务：精度（准确率）、错误率。
+（针对全部样本）
+（多个类别放在一起统计）
+精度 + 错误率 = 1
+它还有TOP5 /TOP1等概念。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（1）"对的个数"/ "预测出来的值" = "查准率"
+（2）“召回率”（查全率）
+//"对的个数" /  "全部的值" = "查全率"
+（3）查准率 + 查全率 结合起来就是F1得分。
+//这就相当于"回归问题的R2得分"，越接近1越好。
+（针对每一个类别单独去统计的）
+（每一个类别都有自己的查准统治、召回率、F1得分）
+</t>
+  </si>
+  <si>
+    <t>混淆矩阵：查看每个类别、自己的查准率、召回率等等。
+通过 混淆矩阵 也可以计算：查准率、召回率、F1得分等等。
+# 查准率 = 主对角线上的值 / 该值所在 "列的和"
+# 召回率 = 主对角线上的值 / 该值所在  "行的和"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分类报告：
+比"混淆矩阵"更全面：
+sm.classification_report(test_y,pred_test_y)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其它的：pr曲线等等，其它指标都是根据“查准率”和“召回率”设计出来的。
+</t>
+  </si>
+  <si>
+    <t>交叉验证法</t>
+  </si>
+  <si>
+    <t>每次 "训练集" 和 "测试集" 不重叠，每次都得到F1得分。
+（它包含了训练、预测、评估的整体过程）
+（它能代替“查准率”和“召回率”、F1得分）</t>
+  </si>
+  <si>
+    <t>用在 “模型优化” 比较多，
+验证曲线、学习曲线、网络搜索、随机搜索，这些接口里面都封装了交叉验证</t>
+  </si>
+  <si>
+    <t>（单独使用）交叉验证得分：
+n = ms.cross_val_score(model, #模型
+                       train_x, train_y,# 样本输入、输出
+                       cv,  # 折叠数量
+                       scoring) # 指定返回的指标</t>
+  </si>
+  <si>
+    <t>（单独使用）
+评估当前模型是否可用。</t>
+  </si>
+  <si>
+    <t>模型优化</t>
+  </si>
+  <si>
+    <t>验证曲线
+（其中封装了交叉验证法）
+ms.validation_curve</t>
+  </si>
+  <si>
+    <t>寻找最优的模型超参数,
+"验证曲线"是指根据不同的评估系数，来评估模型的优劣.</t>
+  </si>
+  <si>
+    <t>但是：两个最优参数放在一起，不一定是最优的参数，
+如以， 验证曲线一次只能验证一个参数，所以 "验证曲线" 的弊端也就是这个</t>
+  </si>
+  <si>
+    <t>学习曲线
+（它里面也使用了：
+交叉验证法）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "学习曲线"是用来评估 "不同大小的训练集"下模型的优劣程度,
+它可以得到 训练集和测试集的占比。
+它里面也有训练预测评估。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（1）可能给上全部数据都还不够
+</t>
+  </si>
+  <si>
+    <t>（1）样本数量均衡化:样本上采样。
+（2）样本数量均衡化:样本下采样。
+（3）class_weight='balanced'
+（4）置信概率：
+print(model.predict_proba(test_x))</t>
+  </si>
+  <si>
+    <t>网格搜索
+（其中也包括交叉验证）
+（一般都使用网络搜索）</t>
+  </si>
+  <si>
+    <t>把所有参数列出来一个一个试，再配合交叉验证。
+（拿到的一定是最好的、缺点是比较慢）</t>
+  </si>
+  <si>
+    <t>model = ms.GridSearchCV(svm.SVC(), params, cv=5)  # 创建网格搜索对象
+  #GridSearchCV 网格、搜索、带交叉验证
+model.fit(x, y)  # 训练，在训练的时候，才会开始寻找参数</t>
+  </si>
+  <si>
+    <t>随机搜索-一般不使用</t>
+  </si>
+  <si>
+    <t>因为它不能保证精度</t>
+  </si>
+  <si>
+    <t>在搜索范围内随机选择样本点。</t>
   </si>
   <si>
     <t>训练集和测试集的划分</t>
@@ -324,6 +544,10 @@
     <t>训练数据要随机打乱（要随机，但是每次随机要一样的随机规则（随机种子random_state=7））</t>
   </si>
   <si>
+    <t>要按照类别，等比划分，“测试集”和“训练集”
+ stratify=y #按照 "y值(类别)"进行等比划分</t>
+  </si>
+  <si>
     <t>机器学习分类</t>
   </si>
   <si>
@@ -386,6 +610,9 @@
   <si>
     <t>n_estimators - 集合学习
 AdaBoost、GBDT</t>
+  </si>
+  <si>
+    <t>交叉熵，也是求极小值。tk * log(yk)</t>
   </si>
 </sst>
 </file>
@@ -570,7 +797,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +818,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -776,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -831,19 +1064,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -986,7 +1206,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,119 +1218,119 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,15 +1358,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1159,6 +1370,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,10 +1418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1183,17 +1427,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1543,16 +1811,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.8495575221239" customWidth="1"/>
-    <col min="2" max="2" width="23.2389380530973" customWidth="1"/>
+    <col min="2" max="2" width="26.4070796460177" customWidth="1"/>
     <col min="3" max="3" width="53.3274336283186" customWidth="1"/>
     <col min="4" max="4" width="60.1238938053097" customWidth="1"/>
     <col min="5" max="5" width="49.1238938053097" customWidth="1"/>
@@ -1682,7 +1950,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1694,7 +1962,7 @@
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1706,14 +1974,14 @@
     <row r="14" ht="94.5" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1723,10 +1991,10 @@
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
@@ -1738,7 +2006,7 @@
       <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
@@ -1755,7 +2023,7 @@
       <c r="E17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1779,7 +2047,7 @@
       <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1792,10 +2060,10 @@
       <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
     </row>
@@ -1853,7 +2121,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" ht="28" customHeight="1" spans="1:6">
       <c r="A26" s="5"/>
       <c r="B26" s="8"/>
       <c r="C26" s="7" t="s">
@@ -1862,17 +2130,19 @@
       <c r="D26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="5"/>
@@ -1881,13 +2151,13 @@
       <c r="A28" s="5"/>
       <c r="B28" s="8"/>
       <c r="C28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="5"/>
     </row>
@@ -1895,10 +2165,10 @@
       <c r="A29" s="5"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="12" t="s">
         <v>53</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="5"/>
@@ -1907,296 +2177,658 @@
       <c r="A30" s="5"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" ht="54" spans="1:6">
       <c r="A31" s="5"/>
-      <c r="B31" s="13" t="s">
-        <v>56</v>
+      <c r="B31" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="53" customHeight="1" spans="1:6">
       <c r="A32" s="5"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" ht="45" customHeight="1" spans="1:6">
       <c r="A33" s="5"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="D33" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="E33" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" ht="108" customHeight="1" spans="1:6">
       <c r="A34" s="5"/>
-      <c r="B34" s="13"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="15" t="s">
-        <v>66</v>
+      <c r="D34" s="7"/>
+      <c r="E34" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" ht="57" customHeight="1" spans="1:5">
-      <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="20" t="s">
+    </row>
+    <row r="35" ht="61" customHeight="1" spans="1:6">
+      <c r="A35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="2" t="s">
+      <c r="C35" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="D35" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" ht="23" customHeight="1" spans="1:6">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" ht="62" customHeight="1" spans="1:6">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" ht="18" customHeight="1" spans="1:6">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" ht="27" spans="1:6">
-      <c r="A40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" ht="54" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="25"/>
-      <c r="B43" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="3"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" ht="27" spans="1:6">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" ht="80" customHeight="1" spans="1:6">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" ht="81" spans="1:6">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="D48" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" ht="51" customHeight="1" spans="1:6">
+      <c r="A49" s="13"/>
+      <c r="B49" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="27"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="25"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="25"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="25"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" ht="57" customHeight="1" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54" ht="67" customHeight="1" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="30"/>
+    </row>
+    <row r="55" ht="81" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="56" ht="148.5" spans="1:5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="30"/>
+    </row>
+    <row r="57" ht="126" customHeight="1" spans="1:6">
+      <c r="A57" s="1"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="34"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" ht="81" spans="1:6">
+      <c r="A58" s="1"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" ht="40.5" spans="1:6">
+      <c r="A59" s="1"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" ht="70" customHeight="1" spans="1:6">
+      <c r="A60" s="1"/>
+      <c r="B60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="34"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" ht="67.5" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" ht="37" customHeight="1" spans="1:6">
+      <c r="A62" s="1"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" ht="61" customHeight="1" spans="1:6">
+      <c r="A63" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="34"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" ht="27" spans="1:6">
+      <c r="A64" s="36"/>
+      <c r="B64" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="34"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" ht="81" customHeight="1" spans="1:6">
+      <c r="A65" s="36"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" ht="54" spans="1:6">
+      <c r="A66" s="36"/>
+      <c r="B66" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="34"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" ht="27" customHeight="1" spans="1:6">
+      <c r="A67" s="36"/>
+      <c r="B67" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="34"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" ht="73" customHeight="1" spans="1:6">
+      <c r="A68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" ht="67" customHeight="1" spans="1:6">
+      <c r="A69" s="2"/>
+      <c r="B69" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="40"/>
+      <c r="B71" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="42"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="42"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="42"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="42"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="42"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="42"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="42"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" ht="27" spans="1:3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>97</v>
+      <c r="D79" s="42"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="42"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" ht="27" spans="1:3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="34"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="36">
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B82:C82"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A34"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="A35:A49"/>
+    <mergeCell ref="A54:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A81"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B20:B30"/>
     <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B64:B65"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C38:C47"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C64:C65"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D44:D47"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F19"/>
   </mergeCells>

--- a/002.Artificial_Intelligence/第四阶段/MACHINE_LEARNING/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/MACHINE_LEARNING/汇总.xlsx
@@ -7,16 +7,21 @@
     <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="基础" sheetId="1" r:id="rId1"/>
+    <sheet name="流程" sheetId="8" r:id="rId2"/>
+    <sheet name="1.回归问题" sheetId="4" r:id="rId3"/>
+    <sheet name="2.分类业务" sheetId="3" r:id="rId4"/>
+    <sheet name="3.聚类问题" sheetId="7" r:id="rId5"/>
+    <sheet name="数据预处理" sheetId="2" r:id="rId6"/>
+    <sheet name="模型评估" sheetId="5" r:id="rId7"/>
+    <sheet name="模型优化" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="208">
   <si>
     <t>几大领域</t>
   </si>
@@ -56,7 +61,114 @@
     <t>降维问题</t>
   </si>
   <si>
-    <t>线性模型</t>
+    <t>深度学习</t>
+  </si>
+  <si>
+    <t>神经网络</t>
+  </si>
+  <si>
+    <t>CNN-卷积神经网络</t>
+  </si>
+  <si>
+    <t>集合学习</t>
+  </si>
+  <si>
+    <t>单个模型得到的预测结果总是片面的，
+根据 "多个不同模" 型给出的预测结果，利用 "平均(回归)" 或者 "投票(分类)" 的方法，
+得出最终预测结果。</t>
+  </si>
+  <si>
+    <t>它不止针对 “决策树”，其它模型同样适用。</t>
+  </si>
+  <si>
+    <t>训练集和测试集的划分</t>
+  </si>
+  <si>
+    <t>sklearn.model_selection
+训练集和测试集的划分，有专门的接口。</t>
+  </si>
+  <si>
+    <t>训练数据要随机打乱（要随机，但是每次随机要一样的随机规则（随机种子random_state=7））</t>
+  </si>
+  <si>
+    <t>要按照类别，等比划分，“测试集”和“训练集”
+ stratify=y #按照 "y值(类别)"进行等比划分</t>
+  </si>
+  <si>
+    <t>机器学习分类</t>
+  </si>
+  <si>
+    <t>基于“模型的学习”</t>
+  </si>
+  <si>
+    <t>根据“数据的分布状态”，找到一个数学公式去表达它。</t>
+  </si>
+  <si>
+    <t>基于“实例的学习”</t>
+  </si>
+  <si>
+    <t>“相似的输入” 必定产生 “相似的输出”。</t>
+  </si>
+  <si>
+    <t>超参数</t>
+  </si>
+  <si>
+    <t>学习率</t>
+  </si>
+  <si>
+    <t>下降的速度 0.01</t>
+  </si>
+  <si>
+    <t>梯度爆炸</t>
+  </si>
+  <si>
+    <t>死循环</t>
+  </si>
+  <si>
+    <t>比较震荡</t>
+  </si>
+  <si>
+    <t>比较平缓</t>
+  </si>
+  <si>
+    <t>轮数</t>
+  </si>
+  <si>
+    <t>指更新多少次参数</t>
+  </si>
+  <si>
+    <t>正则化系数（惩罚项系数）</t>
+  </si>
+  <si>
+    <t>Lasso回归 和 岭回归</t>
+  </si>
+  <si>
+    <t>最高次项</t>
+  </si>
+  <si>
+    <t>多项式回归</t>
+  </si>
+  <si>
+    <t>模型深度</t>
+  </si>
+  <si>
+    <t>max_depth “决策树”的时候 “预剪枝”。</t>
+  </si>
+  <si>
+    <t>弱模型数量</t>
+  </si>
+  <si>
+    <t>n_estimators - 集合学习
+AdaBoost、GBDT</t>
+  </si>
+  <si>
+    <t>交叉熵，也是求极小值。tk * log(yk)</t>
+  </si>
+  <si>
+    <t>邻域半径</t>
+  </si>
+  <si>
+    <t>噪声密度聚类：也是这种办法</t>
   </si>
   <si>
     <t>线性回归</t>
@@ -127,9 +239,6 @@
   </si>
   <si>
     <t>如果在 "圴方误差" 后面加上（γ*）L2范数，它就是“岭回归”</t>
-  </si>
-  <si>
-    <t>多项式回归</t>
   </si>
   <si>
     <t>自变量的高次项（例如平方、立方）被包括在模型中的线性回归。
@@ -181,6 +290,9 @@
     <t>如何“选取最优特征”？</t>
   </si>
   <si>
+    <t>（回归问题）划分最优分割特殊的方式：均方误差。</t>
+  </si>
+  <si>
     <t>当前节点，何时“停止分裂”？</t>
   </si>
   <si>
@@ -200,9 +312,6 @@
   </si>
   <si>
     <t>区别在于它们划分“最优特征”的方式不一样。</t>
-  </si>
-  <si>
-    <t>（回归问题）划分最优分割特殊的方式：均方误差。</t>
   </si>
   <si>
     <t xml:space="preserve">sklearn 里面的 "决策树" ,还封装了 matplotlib的。 </t>
@@ -302,7 +411,12 @@
 而且 "还随机选择部分特征"，</t>
   </si>
   <si>
-    <t>逻辑回归</t>
+    <t>分类问题:
+预测值是离散值</t>
+  </si>
+  <si>
+    <t>逻辑回归
+（线性回归+逻辑函数）</t>
   </si>
   <si>
     <t>"二分类"（也称为逻辑分类）是 "常见的分类方法"
@@ -331,32 +445,37 @@
     <t>决策树-分类问题</t>
   </si>
   <si>
-    <t>将 "具有相同属性" 的样本划分到 "一个叶子节点下"</t>
-  </si>
-  <si>
-    <t>如何“选取最优特征”？（回归问题）</t>
-  </si>
-  <si>
-    <t>划分最优分割特征的方式：均方误差。（）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">如何“选取最优特征”？（分类问题） </t>
+    <t>将 "具有相同属性" 的样本划分到 
+"一个叶子节点下"</t>
+  </si>
+  <si>
+    <t>如何“选取最优特征”？
+（回归问题）</t>
+  </si>
+  <si>
+    <t>划分最优分割特征的方式：均方误差。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如何“选取最优特征”？
+（分类问题） </t>
   </si>
   <si>
     <t>信息熵</t>
   </si>
   <si>
-    <t>信息增益："著名的ID3决策树" 学习算法就是以 "信息增益" 为 "准则" 来划分属性。（不是二叉树）</t>
-  </si>
-  <si>
-    <t>C4.5算法使用的是增益率。（不是二叉树）</t>
-  </si>
-  <si>
-    <t>cart树，在作回归时，使用的是均方误差
-在分类问题时，使用的是基尼系数。</t>
-  </si>
-  <si>
-    <t>与之前"回归问题那里"是相同的。</t>
+    <t>ID3决策树:信息增益："著名的ID3决策树" 学习算法就是以 "信息增益" 为 "准则" 来划分属性。
+（不是二叉树）</t>
+  </si>
+  <si>
+    <t>C4.5算法使用的是:增益率。
+（不是二叉树）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cart树，使用的是基尼系数。
+//=============================
+cart树在作回归时，使用的是均方误差
+在分类问题时，使用的是基尼系数。
+</t>
   </si>
   <si>
     <t>代码实现
@@ -383,18 +502,220 @@
 而 "回归问题" 是：投票,谁的样本多就取谁。</t>
   </si>
   <si>
-    <t>支持向量机</t>
-  </si>
-  <si>
-    <t>集合学习</t>
-  </si>
-  <si>
-    <t>单个模型得到的预测结果总是片面的，
-根据 "多个不同模" 型给出的预测结果，利用 "平均(回归)" 或者 "投票(分类)" 的方法，
-得出最终预测结果。</t>
-  </si>
-  <si>
-    <t>它不止针对 “决策树”，其它模型同样适用。</t>
+    <t>支持向量机
+（它比较出名）
+（寻找最优的超平面）</t>
+  </si>
+  <si>
+    <t>解决了 “线性不可分” 的问题
+它能解决“线性可分”，又能解决“线性不可分”
+（它支持少量的样本分类，）不支持许多样本进行分类。</t>
+  </si>
+  <si>
+    <t>线性可分</t>
+  </si>
+  <si>
+    <t>线性不可分：
+一维升二维
+二维升三维
+它是通过 "升维变换"来解决“线性不可分”的问题</t>
+  </si>
+  <si>
+    <t>核函数
+（1）线性核函数，在原始空间进行升维变换
+（2）多项式核函数（增加多次项）（用得少，因为复杂度太高，比较费时间）
+（3）径向基核函数（也叫高斯核函数，中间密集周围稀疏）（用得多，性能比较高）
+等等。</t>
+  </si>
+  <si>
+    <t>朴素贝页斯
+（它以参数少而出名）
+（朴素 指 "特征独立假设"
+贝页斯 R指贝叶斯定理）</t>
+  </si>
+  <si>
+    <t>通过计算概率区分类别
+（自然语言处理：）</t>
+  </si>
+  <si>
+    <t>贝页斯定理组成：
+（1）事件概率
+（2）联合概率
+（3）条件概率
+事件独立性：两个事件相互不影响 
+先验概率 与 后验概率 ,后验概率的计算要以先验概率为基础
+贝页斯定理 ： 
+P(A|B) = P(A)*P(B|A)/P(B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朴素 + 贝页斯：
+</t>
+  </si>
+  <si>
+    <t>朴素-贝叶斯分类器：
+（1）高斯朴素贝叶斯：样本的值是连续的
+（2）多项式朴素贝叶斯：样本的值是离散值
+（3）伯努利朴素贝叶斯：样本是二元离散值的时候。</t>
+  </si>
+  <si>
+    <t>特征独立的情况先，优先使用</t>
+  </si>
+  <si>
+    <t>聚类
+（只传X值就可以了）
+（聚类属于无监督学习）
+（大部分是有监督学习）
+（聚类是无监督的里面的产要形式）
+（无监督学习其它还有什么模型呢：主成分析，高斯混合模型）</t>
+  </si>
+  <si>
+    <t>相似度度量方式</t>
+  </si>
+  <si>
+    <t>欧氏距离</t>
+  </si>
+  <si>
+    <t>两点之前连线的长度</t>
+  </si>
+  <si>
+    <t>曼哈顿距离</t>
+  </si>
+  <si>
+    <t>闵氏距离，p=1就是欧式，p=2是曼哈顿</t>
+  </si>
+  <si>
+    <t>切比雪夫距离</t>
+  </si>
+  <si>
+    <t>聚类算法分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原型：基于中心
+基于“原型”的聚类
+</t>
+  </si>
+  <si>
+    <t>K-Means
+：K-均值聚类(每次局部更新)
+（可以预测）
+案例：
+3个楼开3个超市
+“噪声敏感”
+“聚类结果不稳定”</t>
+  </si>
+  <si>
+    <t>k-means和DBSCAN 
+是互补的</t>
+  </si>
+  <si>
+    <t>密度：它没有中心，有噪声（-1表示噪声）
+    （邻域半径，最小样本数量）
+基于“密度”的聚类</t>
+  </si>
+  <si>
+    <t>DBSCAN
+“噪声不敏感”
+“聚类结果不稳定”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">层次：
+基于“层次”的聚类，
+</t>
+  </si>
+  <si>
+    <t>没有中心
+AgglomerativeClustering
+（凝聚层次，没有边界，没有噪声，也没有核心点的概念
+）
+需要提前给出一个K
+“噪声不敏感”
+“聚类结果不稳定”</t>
+  </si>
+  <si>
+    <t>它与k-means和dbscan都有一点像
+需要值，但又不基于中心。</t>
+  </si>
+  <si>
+    <t>聚类，可以做预测、推荐</t>
+  </si>
+  <si>
+    <t>数据预处理</t>
+  </si>
+  <si>
+    <t>数字类型</t>
+  </si>
+  <si>
+    <t>（1）均值移除</t>
+  </si>
+  <si>
+    <t>（2）范围缩放</t>
+  </si>
+  <si>
+    <t>（3）二值化</t>
+  </si>
+  <si>
+    <t>（4）标签编码</t>
+  </si>
+  <si>
+    <t>（5）独热编码</t>
+  </si>
+  <si>
+    <t>图像类型</t>
+  </si>
+  <si>
+    <t>（1）旋转</t>
+  </si>
+  <si>
+    <t>（2）平移</t>
+  </si>
+  <si>
+    <t>（3）放大</t>
+  </si>
+  <si>
+    <t>（4）缩小</t>
+  </si>
+  <si>
+    <t>（5）二值化</t>
+  </si>
+  <si>
+    <t>（6）灰度化</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>机器学习</t>
+  </si>
+  <si>
+    <t>（1）词频逆文档频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  如：
+         国王 king    he
+            女王 queen   she</t>
+  </si>
+  <si>
+    <t>（2）词模型</t>
+  </si>
+  <si>
+    <t>（3）共线矩阵</t>
+  </si>
+  <si>
+    <t>（4）等等</t>
+  </si>
+  <si>
+    <t>（5）词嵌入、词向量，把词转成数值类型的表示，</t>
+  </si>
+  <si>
+    <t>聚类业务</t>
+  </si>
+  <si>
+    <t>内密外疏</t>
+  </si>
+  <si>
+    <t>使用 轮廓系数 系数来衡量
+S(i) = (b(i) - a(i)) / max{a(i),b(i)}
+a(i)越小越好，b(i)越大越好</t>
   </si>
   <si>
     <t>评估模型</t>
@@ -412,38 +733,96 @@
     <t>分类业务</t>
   </si>
   <si>
-    <t xml:space="preserve"> "分类问题" 与 "回归问题" 的评估方式不一样，
-分类问题也不能使用r2得分来评估。
+    <t xml:space="preserve"> 分类问题评估指标：
 </t>
   </si>
   <si>
-    <t>简单任务：精度（准确率）、错误率。
-（针对全部样本）
+    <r>
+      <t xml:space="preserve">简单任务：精度（准确率）、错误率。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（针对全部样本）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 （多个类别放在一起统计）
-精度 + 错误率 = 1
-它还有TOP5 /TOP1等概念。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（1）"对的个数"/ "预测出来的值" = "查准率"
+精度 + 错误率 = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>（针对每一种类别）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（1）"对的个数"/ "预测出来的值" = "查准率"
 （2）“召回率”（查全率）
 //"对的个数" /  "全部的值" = "查全率"
-（3）查准率 + 查全率 结合起来就是F1得分。
+（3）F1得分：2*（查准率*召回率）/(查准率+召回率)
+查准率 + 查全率 结合起来就是F1得分。
 //这就相当于"回归问题的R2得分"，越接近1越好。
 （针对每一个类别单独去统计的）
-（每一个类别都有自己的查准统治、召回率、F1得分）
-</t>
-  </si>
-  <si>
-    <t>混淆矩阵：查看每个类别、自己的查准率、召回率等等。
+（每一个类别都有自己的查准统治、召回率、F1得分）</t>
+    </r>
+  </si>
+  <si>
+    <t>混淆矩阵：
+查看每个类别、自己的查准率、召回率等等。
 通过 混淆矩阵 也可以计算：查准率、召回率、F1得分等等。
 # 查准率 = 主对角线上的值 / 该值所在 "列的和"
 # 召回率 = 主对角线上的值 / 该值所在  "行的和"</t>
   </si>
   <si>
-    <t xml:space="preserve">分类报告：
+    <r>
+      <t xml:space="preserve">分类报告：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（针对每个类别的单独情况和综合情况全部打印）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 比"混淆矩阵"更全面：
-sm.classification_report(test_y,pred_test_y)
-</t>
+sm.classification_report(test_y,pred_test_y)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">其它的：pr曲线等等，其它指标都是根据“查准率”和“召回率”设计出来的。
@@ -500,8 +879,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">（1）可能给上全部数据都还不够
-</t>
+    <t>（1）可能给上全部数据都还不够</t>
   </si>
   <si>
     <t>（1）样本数量均衡化:样本上采样。
@@ -511,9 +889,22 @@
 print(model.predict_proba(test_x))</t>
   </si>
   <si>
-    <t>网格搜索
+    <r>
+      <t xml:space="preserve">网格搜索
 （其中也包括交叉验证）
-（一般都使用网络搜索）</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（一般都使用网络搜索）</t>
+    </r>
   </si>
   <si>
     <t>把所有参数列出来一个一个试，再配合交叉验证。
@@ -532,87 +923,6 @@
   </si>
   <si>
     <t>在搜索范围内随机选择样本点。</t>
-  </si>
-  <si>
-    <t>训练集和测试集的划分</t>
-  </si>
-  <si>
-    <t>sklearn.model_selection
-训练集和测试集的划分，有专门的接口。</t>
-  </si>
-  <si>
-    <t>训练数据要随机打乱（要随机，但是每次随机要一样的随机规则（随机种子random_state=7））</t>
-  </si>
-  <si>
-    <t>要按照类别，等比划分，“测试集”和“训练集”
- stratify=y #按照 "y值(类别)"进行等比划分</t>
-  </si>
-  <si>
-    <t>机器学习分类</t>
-  </si>
-  <si>
-    <t>基于“模型的学习”</t>
-  </si>
-  <si>
-    <t>根据“数据的分布状态”，找到一个数学公式去表达它。</t>
-  </si>
-  <si>
-    <t>基于“实例的学习”</t>
-  </si>
-  <si>
-    <t>“相似的输入” 必定产生 “相似的输出”。</t>
-  </si>
-  <si>
-    <t>超参数</t>
-  </si>
-  <si>
-    <t>学习率</t>
-  </si>
-  <si>
-    <t>下降的速度 0.01</t>
-  </si>
-  <si>
-    <t>梯度爆炸</t>
-  </si>
-  <si>
-    <t>死循环</t>
-  </si>
-  <si>
-    <t>比较震荡</t>
-  </si>
-  <si>
-    <t>比较平缓</t>
-  </si>
-  <si>
-    <t>轮数</t>
-  </si>
-  <si>
-    <t>指更新多少次参数</t>
-  </si>
-  <si>
-    <t>正则化系数（惩罚项系数）</t>
-  </si>
-  <si>
-    <t>Lasso回归 和 岭回归</t>
-  </si>
-  <si>
-    <t>最高次项</t>
-  </si>
-  <si>
-    <t>模型深度</t>
-  </si>
-  <si>
-    <t>max_depth “决策树”的时候 “预剪枝”。</t>
-  </si>
-  <si>
-    <t>弱模型数量</t>
-  </si>
-  <si>
-    <t>n_estimators - 集合学习
-AdaBoost、GBDT</t>
-  </si>
-  <si>
-    <t>交叉熵，也是求极小值。tk * log(yk)</t>
   </si>
 </sst>
 </file>
@@ -625,10 +935,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -812,13 +1130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,139 +1518,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1340,71 +1673,122 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,43 +1802,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1811,10 +2168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1828,1009 +2185,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" ht="45" customHeight="1" spans="1:6">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
+      <c r="B10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" ht="44" customHeight="1" spans="1:6">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="C11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" ht="57" customHeight="1" spans="1:5">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E12" s="51"/>
+    </row>
+    <row r="13" ht="73" customHeight="1" spans="1:6">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" ht="94.5" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" ht="67" customHeight="1" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" ht="67.5" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" ht="94" customHeight="1" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D21" s="55"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" ht="31.5" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7" t="s">
+      <c r="D23" s="55"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="D24" s="55"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" ht="27" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="52"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" ht="28" customHeight="1" spans="1:6">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="C29" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" ht="40.5" spans="1:6">
-      <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" ht="54" spans="1:6">
-      <c r="A31" s="5"/>
-      <c r="B31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" ht="53" customHeight="1" spans="1:6">
-      <c r="A32" s="5"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" ht="45" customHeight="1" spans="1:6">
-      <c r="A33" s="5"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" ht="108" customHeight="1" spans="1:6">
-      <c r="A34" s="5"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" ht="61" customHeight="1" spans="1:6">
-      <c r="A35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" ht="23" customHeight="1" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" ht="62" customHeight="1" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" ht="18" customHeight="1" spans="1:6">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" ht="27" spans="1:6">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" ht="27" spans="1:6">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" ht="80" customHeight="1" spans="1:6">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="17"/>
-    </row>
-    <row r="48" ht="81" spans="1:6">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" ht="51" customHeight="1" spans="1:6">
-      <c r="A49" s="13"/>
-      <c r="B49" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="25"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="25"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="25"/>
-    </row>
-    <row r="53" ht="57" customHeight="1" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="30"/>
-    </row>
-    <row r="54" ht="67" customHeight="1" spans="1:5">
-      <c r="A54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="30"/>
-    </row>
-    <row r="55" ht="81" spans="1:5">
-      <c r="A55" s="1"/>
-      <c r="B55" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="30"/>
-    </row>
-    <row r="56" ht="148.5" spans="1:5">
-      <c r="A56" s="1"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="30"/>
-    </row>
-    <row r="57" ht="126" customHeight="1" spans="1:6">
-      <c r="A57" s="1"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="34"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" ht="81" spans="1:6">
-      <c r="A58" s="1"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" ht="40.5" spans="1:6">
-      <c r="A59" s="1"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="34"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" ht="70" customHeight="1" spans="1:6">
-      <c r="A60" s="1"/>
-      <c r="B60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" ht="67.5" spans="1:6">
-      <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" ht="37" customHeight="1" spans="1:6">
-      <c r="A62" s="1"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" ht="61" customHeight="1" spans="1:6">
-      <c r="A63" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" ht="27" spans="1:6">
-      <c r="A64" s="36"/>
-      <c r="B64" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" ht="81" customHeight="1" spans="1:6">
-      <c r="A65" s="36"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" s="34"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" ht="54" spans="1:6">
-      <c r="A66" s="36"/>
-      <c r="B66" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" s="34"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" ht="27" customHeight="1" spans="1:6">
-      <c r="A67" s="36"/>
-      <c r="B67" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D67" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67" s="34"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" ht="73" customHeight="1" spans="1:6">
-      <c r="A68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" ht="67" customHeight="1" spans="1:6">
-      <c r="A69" s="2"/>
-      <c r="B69" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="40"/>
-      <c r="B71" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="42"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="42"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D77" s="42"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="42"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="42"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="42"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" ht="27" spans="1:3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="34"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3" t="s">
-        <v>151</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B82:C82"/>
+  <mergeCells count="7">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A34"/>
-    <mergeCell ref="A35:A49"/>
-    <mergeCell ref="A54:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A81"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C38:C47"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2844,13 +2519,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2858,16 +2532,1097 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="19.0530973451327" customWidth="1"/>
+    <col min="3" max="3" width="31.929203539823" customWidth="1"/>
+    <col min="4" max="4" width="39.0353982300885" customWidth="1"/>
+    <col min="5" max="5" width="53.6991150442478" customWidth="1"/>
+    <col min="6" max="6" width="79.0619469026549" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" ht="94.5" spans="1:6">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:6">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" ht="67.5" spans="1:6">
+      <c r="A9" s="38"/>
+      <c r="B9" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" ht="31.5" spans="1:6">
+      <c r="A10" s="38"/>
+      <c r="B10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" ht="67.5" spans="1:6">
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" ht="54" spans="1:6">
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" ht="54" spans="1:6">
+      <c r="A21" s="38"/>
+      <c r="B21" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:6">
+      <c r="A22" s="38"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="40"/>
+    </row>
+    <row r="23" ht="40.5" spans="1:6">
+      <c r="A23" s="38"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" ht="67.5" spans="1:6">
+      <c r="A24" s="38"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:A24"/>
+    <mergeCell ref="B1:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:E19"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="50.3185840707965" customWidth="1"/>
+    <col min="2" max="2" width="28.6017699115044" customWidth="1"/>
+    <col min="3" max="3" width="45.3451327433628" customWidth="1"/>
+    <col min="4" max="4" width="36.6991150442478" customWidth="1"/>
+    <col min="5" max="5" width="70.5398230088496" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="27" spans="1:5">
+      <c r="A2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" ht="67.5" spans="1:5">
+      <c r="A4" s="28"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" ht="37" customHeight="1" spans="1:5">
+      <c r="A5" s="28"/>
+      <c r="B5" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:5">
+      <c r="A7" s="28"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:5">
+      <c r="A8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:5">
+      <c r="A9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="28"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" ht="81" spans="1:5">
+      <c r="A15" s="28"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="28"/>
+      <c r="B16" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" ht="81" spans="1:5">
+      <c r="A17" s="28"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" ht="188" customHeight="1" spans="1:5">
+      <c r="A18" s="28"/>
+      <c r="B18" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" ht="81" spans="1:5">
+      <c r="A19" s="37"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C5:C14"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D11:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E3:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="24.6991150442478" customWidth="1"/>
+    <col min="6" max="6" width="24.2743362831858" customWidth="1"/>
+    <col min="7" max="7" width="37.3893805309735" customWidth="1"/>
+    <col min="8" max="8" width="25.5663716814159" customWidth="1"/>
+    <col min="9" max="9" width="15.9380530973451" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:9">
+      <c r="E3" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="5:9">
+      <c r="E4" s="20"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="5:9">
+      <c r="E5" s="20"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="E6" s="20"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" ht="132" customHeight="1" spans="5:9">
+      <c r="E7" s="20"/>
+      <c r="F7" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" ht="51" customHeight="1" spans="5:9">
+      <c r="E8" s="20"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" ht="128" customHeight="1" spans="5:9">
+      <c r="E9" s="20"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="20"/>
+      <c r="F10" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E19:I34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="11.3097345132743" customWidth="1"/>
+    <col min="8" max="8" width="49.0884955752212" customWidth="1"/>
+    <col min="9" max="9" width="31.5398230088496" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="19" spans="5:8">
+      <c r="E19" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I34" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E19:E34"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="I30:I34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.25"/>
+  </sheetPr>
+  <dimension ref="E7:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="14.8053097345133" customWidth="1"/>
+    <col min="7" max="7" width="25.4867256637168" customWidth="1"/>
+    <col min="8" max="8" width="54.1681415929204" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" ht="130" customHeight="1" spans="5:8">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="5:8">
+      <c r="E8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" ht="54" spans="5:8">
+      <c r="E9" s="6"/>
+      <c r="F9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" ht="121.5" spans="5:8">
+      <c r="E10" s="6"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" ht="79" customHeight="1" spans="5:8">
+      <c r="E11" s="6"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" ht="54" customHeight="1" spans="5:8">
+      <c r="E12" s="6"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" ht="55" customHeight="1" spans="5:8">
+      <c r="E13" s="6"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="5:8">
+      <c r="E14" s="6"/>
+      <c r="F14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" ht="81" spans="5:8">
+      <c r="E15" s="6"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="5:8">
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D9:G13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="25.5575221238938" customWidth="1"/>
+    <col min="6" max="6" width="29.070796460177" customWidth="1"/>
+    <col min="7" max="7" width="50.9115044247788" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" ht="67.5" spans="4:7">
+      <c r="D9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="4:7">
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="4:7">
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="4:7">
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/002.Artificial_Intelligence/第四阶段/MACHINE_LEARNING/汇总.xlsx
+++ b/002.Artificial_Intelligence/第四阶段/MACHINE_LEARNING/汇总.xlsx
@@ -4,24 +4,520 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="基础" sheetId="1" r:id="rId1"/>
-    <sheet name="流程" sheetId="8" r:id="rId2"/>
-    <sheet name="1.回归问题" sheetId="4" r:id="rId3"/>
-    <sheet name="2.分类业务" sheetId="3" r:id="rId4"/>
-    <sheet name="3.聚类问题" sheetId="7" r:id="rId5"/>
-    <sheet name="数据预处理" sheetId="2" r:id="rId6"/>
-    <sheet name="模型评估" sheetId="5" r:id="rId7"/>
-    <sheet name="模型优化" sheetId="6" r:id="rId8"/>
+    <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
+    <sheet name="0.AI体系" sheetId="10" r:id="rId2"/>
+    <sheet name="0.分类" sheetId="11" r:id="rId3"/>
+    <sheet name="0.预处理" sheetId="2" r:id="rId4"/>
+    <sheet name="基础" sheetId="1" r:id="rId5"/>
+    <sheet name="1.回归问题" sheetId="4" r:id="rId6"/>
+    <sheet name="2.分类业务" sheetId="3" r:id="rId7"/>
+    <sheet name="3.聚类问题" sheetId="7" r:id="rId8"/>
+    <sheet name="模型评估" sheetId="5" r:id="rId9"/>
+    <sheet name="模型优化" sheetId="6" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="364">
+  <si>
+    <t>numpy和python中的数学指标</t>
+  </si>
+  <si>
+    <t>算数平均值</t>
+  </si>
+  <si>
+    <t>平均值的作用：算数平均值表示——“对增值进行一个无偏估计”</t>
+  </si>
+  <si>
+    <t>m = np.mean(array)   #np的接口
+m = array.mean()  #pandas中Series的接口
+m = df.mean(axis=0)  #pandas中Dataframe的接口</t>
+  </si>
+  <si>
+    <t>加权平均值</t>
+  </si>
+  <si>
+    <t>求平均值时，考虑 "不同样本" 的重要性，可以为 "不同的样本赋予不同的权重"</t>
+  </si>
+  <si>
+    <t>ap = np.average(array,weights=volumes)</t>
+  </si>
+  <si>
+    <t>最小值、最大值</t>
+  </si>
+  <si>
+    <t>np.max()
+np.min()</t>
+  </si>
+  <si>
+    <t>极差</t>
+  </si>
+  <si>
+    <t>最大值减去最不小值</t>
+  </si>
+  <si>
+    <t>np.ptp()</t>
+  </si>
+  <si>
+    <t>最值索引</t>
+  </si>
+  <si>
+    <t>（1）np用法  //返回 "位置" 索引 ，如果返回值相同，会取前面一个
+print(np.argmax(a),np.argmin(a))
+（2）pandas中 //返回 "标签" 索引
+print(series.idxmax(),series.idxmin())  
+print(dataframe.idxmax(),dataframe.idxmin())</t>
+  </si>
+  <si>
+    <t>中位数</t>
+  </si>
+  <si>
+    <t>和平均值有点像
+当特殊数据比较多的时候，求平均值，特殊数据一定会影响整体数据的分布状态
+所以这时候中位数就派上了用场</t>
+  </si>
+  <si>
+    <t>np.median()</t>
+  </si>
+  <si>
+    <t>标准差</t>
+  </si>
+  <si>
+    <t>"评估一组数据" 震荡的幅度。
+ 标准差大好，还是标准差小好?
+   标准差 + 平均值结合起来分析
+   （1）"标准差" 比较小
+   （2）且 "平均值" 比较高
+   说明：又好又稳定</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> （1）求平均值
+ （2）求离差(deviation): 表示某组数据距离某个中心点偏离程度
+ （3）求离差方 //因为有负数，所以(离差的平方)
+ （4）方差：  //对 "离差方"  求均值，
+ （5）校准差： //对 "方差"开根号，就是标准差//因为前面平方过
+</t>
+  </si>
+  <si>
+    <t>正太分布</t>
+  </si>
+  <si>
+    <t>越接近  "期望值"  的部分，出现的概率越大。
+越远离  "期望值"  的部分，出现的概率越小。</t>
+  </si>
+  <si>
+    <t>高斯分布</t>
+  </si>
+  <si>
+    <t>AI体系</t>
+  </si>
+  <si>
+    <t>两大技术</t>
+  </si>
+  <si>
+    <t>（传统）机器学习</t>
+  </si>
+  <si>
+    <t>"机器学习"代码量不大，因为有对应的框架封装了接口</t>
+  </si>
+  <si>
+    <t>机器学习分类</t>
+  </si>
+  <si>
+    <t>基于 “模型的学习”</t>
+  </si>
+  <si>
+    <t>根据 "数据的分布状态"，找到一个数学公式去表达它。
+如：线性回归、岭回归、Lasso回归、多项式回归。</t>
+  </si>
+  <si>
+    <t>基于 “实例的学习”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "相似的输入" 必定产生 "相似的输出"。如：决策树</t>
+  </si>
+  <si>
+    <t>基本流程</t>
+  </si>
+  <si>
+    <t>（1）加载数据
+（2）整理输入输出
+（3）划分训练集和测试集
+（4）创建模型
+（5）训练
+（6）预测</t>
+  </si>
+  <si>
+    <t>深度学习</t>
+  </si>
+  <si>
+    <t>"深度学习"的代码量动不动就2000行，比较大</t>
+  </si>
+  <si>
+    <t>从学习角度</t>
+  </si>
+  <si>
+    <t>监督学习</t>
+  </si>
+  <si>
+    <t>无监督学习</t>
+  </si>
+  <si>
+    <t>强化学习</t>
+  </si>
+  <si>
+    <t>阿尔法狗就是苦于  "深度学习"  做的 "强化学习"</t>
+  </si>
+  <si>
+    <t>主要方向</t>
+  </si>
+  <si>
+    <t>计算机视觉</t>
+  </si>
+  <si>
+    <t>如何让机器理解图像和视频中的内容</t>
+  </si>
+  <si>
+    <t>最简单的图像分类</t>
+  </si>
+  <si>
+    <t>局部图像，目标检测</t>
+  </si>
+  <si>
+    <t>图像分割</t>
+  </si>
+  <si>
+    <t>拍照识别</t>
+  </si>
+  <si>
+    <t>语音识别</t>
+  </si>
+  <si>
+    <t>文本转语音、语音转文本</t>
+  </si>
+  <si>
+    <t>自然语言处理</t>
+  </si>
+  <si>
+    <t>人工智能皇冠上的明珠</t>
+  </si>
+  <si>
+    <t>专家系统</t>
+  </si>
+  <si>
+    <t>规划与推理</t>
+  </si>
+  <si>
+    <t>机器人</t>
+  </si>
+  <si>
+    <t>数据分两类</t>
+  </si>
+  <si>
+    <t>连续数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在某个 "区间范围内 任意的值" 都可能出现的 "情况" 
+就叫 "连续数据"
+典型的代表就是 "钱" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   例如：我们班同学今天吃饭花了多少钱? 0-200
+     19.1 26.6 33.3 18.8 52 66 26 32.1 188.8 ......
+     //这组数据有一个什么样的特点? //不是规律，是特点
+     //特点 ： 0~200以内的任意值都可能出现</t>
+  </si>
+  <si>
+    <t>离散数据</t>
+  </si>
+  <si>
+    <t>只有几个 "可选值" 的这种情况</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   收集一下：我们班同学的性别
+     男 女 男 女 男  女  女 男  女 男 男 男 女  男 女 男 男 ......
+     不是男，就是女，不会出现其它情况
+     男 和 女 就是离散值
+     只有两个值的就叫 "二元离散值"
+     有三个 "离散值" ，就叫三元或多元离散值。</t>
+  </si>
+  <si>
+    <t>问题分类</t>
+  </si>
+  <si>
+    <t>回归问题</t>
+  </si>
+  <si>
+    <t>"有监督学习"，有对错，
+在有监督的基础之上得到 "连续的输出"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   .例如：
+  - 根据房屋面积、地段、修建年代以及其它条件预测房屋价格  //"价格"指钱，所以说是 "连续数据"
+  - 根据各种外部条件预测某支股票的价格  //又是价格，还是"钱"，连续数据
+  - 根据农业、气象等数据预测粮食收成   //收成，以吨为单位，1吨，2吨。。。，所以是连续数据
+  - 计算两个人脸的相似度     //相似度 0 ~ 1 连续数据
+//==============
+   "回归" 这个术语： 使用 "源于统计学"，
+       最初是 "用来描述观测数据" 倾向于 "向平均值回归" 的现象。</t>
+  </si>
+  <si>
+    <t>分类问题</t>
+  </si>
+  <si>
+    <t>"有监督学习"，有对错。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 手写体识别（10个类别分类问题）//0-9 ，10个数字，其实是想得到，写的到底是1，还是2，所以是分类问题
+           //结果，只会在这3个可 选值之一
+  - 水果、鲜花、动物识别  //结果只能是这三个之一。 离散值
+  - 工业产品瑕疵检测（良品、次品二分类问题） //不是好的，就是坏的。 离散值
+  - 识别一个句子表达的情绪（正面、负面、中性）// 离散值
+</t>
+  </si>
+  <si>
+    <t>聚类问题</t>
+  </si>
+  <si>
+    <t>无"监督"，只有好坏，没有对错</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /**
+   只有输入，没有输出，
+  */
+  - 根据 "一批麦粒" 的数据，判断哪些属于 "同一个品种"     //聚类，分成一类，
+  - 根据客户在电商网站的浏览和购买历史，判断哪些客户对某件商品感兴趣  //聚类，
+  - 判断哪些客户具有更高的相似度  </t>
+  </si>
+  <si>
+    <t>降维问题</t>
+  </si>
+  <si>
+    <t>主要是从数学角度变化数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  在 "性能损失尽可能小" 的情况下，降低 "数据的复杂度" ，"数据规模" 缩小都称为 "降维问题".
+  "规划缩小" ，计算简单了，都叫 "降维"
+  数据 "特别大"，数据 "特别多"，这种情况就需要降维。
+  比较数据有5个 特征，我想变成2个特征，
+  通过 "正交变换" 、"斜方差举证"，从数据角度把变换、映射
+  这样就能：通过用 "两个值" 去表达"5个数据"。
+  把更 "高维度的数据" 用更少的特殊去表示。
+</t>
+  </si>
+  <si>
+    <t>数据预处理</t>
+  </si>
+  <si>
+    <t>数字类型</t>
+  </si>
+  <si>
+    <t>特征归一化
+（特征：即列）</t>
+  </si>
+  <si>
+    <t>标准化
+也叫：均值移除
+也叫零均值归一化
+（关注：列）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以 "列" 为单位,让样本矩阵中的  " 每一列的平均值为0" ， "标准差为1" ，
+目的：缩小列与列之间的差异？
+</t>
+  </si>
+  <si>
+    <t>应用场景： 列与列之间差异太大
+如：根据  "身高" 和 "体重"，预测身体健康指数。</t>
+  </si>
+  <si>
+    <t>范围缩放
+线性函数归一化
+（关注：列）</t>
+  </si>
+  <si>
+    <t>将每一列的 "最小值" 和 "最大值" 设定为  "相同的区间"
+最小值一般设置为0，最大值设置为1。</t>
+  </si>
+  <si>
+    <t>范围缩放 也是用来处理  "列与与差距过大" 的情况
+     只不过 "范围缩放" 的处理方式不一样</t>
+  </si>
+  <si>
+    <t>归一化 normalize
+（关注：行）</t>
+  </si>
+  <si>
+    <t>反映"样本中" 的 "各个特征" 所占 "比率"，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   sklearn接口
+   sp.normalize(原始样本，norm='12')
+   /**
+    norm 指范数
+    # l1:  l1范数，除以向量中 "各元素绝对值之和"
+    # l2:  l2范数，除以向量中 "各元素平方之和"
+    绝对值 和 平方都是为了防止负数
+   */</t>
+  </si>
+  <si>
+    <t>二值化</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">根据一个事先给定的阈值，用0或1 来表示特征值是否超过阈值，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(不可逆)</t>
+    </r>
+  </si>
+  <si>
+    <t>根据一个事先给定的阈值，用0或1 来表示特征值是否超过阈值，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">独热编码
+</t>
+  </si>
+  <si>
+    <r>
+      <t>想让数据可逆，不丢失信息细节，这里就可以使用 "独热编码"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可逆）</t>
+    </r>
+  </si>
+  <si>
+    <t>数据是离散值，才能去做。</t>
+  </si>
+  <si>
+    <t>one_hot_encoder = sp.OneHotEncoder</t>
+  </si>
+  <si>
+    <t>稀疏矩阵</t>
+  </si>
+  <si>
+    <t>标签编码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 将"字符串"转成数值类型
+    "针对离散值去做的"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">标签编码只能转 "一维数据"
+  遇到文件时，一般 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一列一列转</t>
+    </r>
+  </si>
+  <si>
+    <t>lb_encoder = sp.LabelEncoder() #定义标签编码对象
+lb_samples = lb_encoder.fit_transform(raw_samples) #执行标签编码#训练并转换
+print(lb_samples)
+print(lb_encoder.inverse_transform(lb_samples)) #逆向转换</t>
+  </si>
+  <si>
+    <t>图像类型</t>
+  </si>
+  <si>
+    <t>（1）旋转</t>
+  </si>
+  <si>
+    <t>（2）平移</t>
+  </si>
+  <si>
+    <t>（3）放大</t>
+  </si>
+  <si>
+    <t>（4）缩小</t>
+  </si>
+  <si>
+    <t>（5）二值化</t>
+  </si>
+  <si>
+    <t>（6）灰度化</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>机器学习</t>
+  </si>
+  <si>
+    <t>（1）词频逆文档频率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  如：
+         国王 king    he
+            女王 queen   she</t>
+  </si>
+  <si>
+    <t>（2）词模型</t>
+  </si>
+  <si>
+    <t>（3）共线矩阵</t>
+  </si>
+  <si>
+    <t>（4）等等</t>
+  </si>
+  <si>
+    <t>（5）词嵌入、词向量，把词转成数值类型的表示，</t>
+  </si>
+  <si>
+    <t>artificial    intelligence
+读：阿尔提（费学） 赢特ne（jin ce）</t>
+  </si>
+  <si>
+    <t>人工智能做的主要就是预测
+   预测这张图的内容，
+   预测这张人脸是谁
+   预测它这句话说的是什么
+   预测薪资</t>
+  </si>
   <si>
     <t>几大领域</t>
   </si>
@@ -44,30 +540,354 @@
     <t>（2）深度学习</t>
   </si>
   <si>
-    <t>基本问题分类：
-什么样的问题，
-就使用什么样的模型。</t>
-  </si>
-  <si>
-    <t>回归问题</t>
-  </si>
-  <si>
-    <t>分类问题</t>
-  </si>
-  <si>
-    <t>聚类问题</t>
-  </si>
-  <si>
-    <t>降维问题</t>
-  </si>
-  <si>
-    <t>深度学习</t>
-  </si>
-  <si>
-    <t>神经网络</t>
-  </si>
-  <si>
-    <t>CNN-卷积神经网络</t>
+    <t>在 "人工智能" 里面，
+（1）在机器学习中：用来 “保存数据的东西” 是数组
+（2）在深度学习中：用到的是 “张量”，张量的底层就是数组。</t>
+  </si>
+  <si>
+    <t>numpy</t>
+  </si>
+  <si>
+    <t>数组 与 值 进行计算</t>
+  </si>
+  <si>
+    <t>数据的"广播机制"</t>
+  </si>
+  <si>
+    <t>如：当数组*2的时候，
+   如 [1 2 3 4 5 6 ]
+   它会对2进制一个升维[2 2 2 2 2 2]
+   然后每个元素乘以对应位置的值，
+   这也就减少了循环</t>
+  </si>
+  <si>
+    <t>计算</t>
+  </si>
+  <si>
+    <t>数组 与 数组 进行计算：
+对应位置进行计算</t>
+  </si>
+  <si>
+    <t>np的一些函数</t>
+  </si>
+  <si>
+    <t>np.arange(1, 10)
+np.zeros
+np.ones
+zeros_like 和 ones_like
+线性拆分：ary = np.linspace</t>
+  </si>
+  <si>
+    <t>np数组的属性</t>
+  </si>
+  <si>
+    <t>维度、形状：shape
+数据类型：dtype，布尔、整形、浮点、字符、日期、复数、自定义复合（numpy里面是“同质数组”）
+元素个数 size  ，长度 len
+维度：ndim
+元素字节数：itemsize
+T - 数组对象的转置视图
+flat - 扁平迭代器
+tolist 数组转列表</t>
+  </si>
+  <si>
+    <t>索引：</t>
+  </si>
+  <si>
+    <t>旧写法：ary[0][0][0]
+新写法：ary[0, 0, 0]</t>
+  </si>
+  <si>
+    <t>切片：</t>
+  </si>
+  <si>
+    <t>一次性拿到一部分数据（切片后的类型和原来一致）:
+（1）一维切片
+a[:3]
+a[::-1]
+a[:-4:-1]
+（2）多维切片
+ary[:1, :2]
+//===============拿到所有行，不要最后一列
+ary[:, 0:-1]
+//===============拿到所有行，只要最后一列
+ary[:, -1]</t>
+  </si>
+  <si>
+    <t>掩码</t>
+  </si>
+  <si>
+    <t>用数组索引数组
+# 创建一个列表（或数组）
+mask = [True, False, True, False, True, False, True, False, True]
+# 用数组索引一个 "列表"，正常情况是一个索引值，一个切片
+print[a[mask]]
+//========================
+（1）布尔掩码
+   （1）mask里面是 布尔值
+   （2）掩码里面元素个数和原数组元素个数要相同
+（2）索引掩码
+   mask里面是索引值，
+   //个数可以不一致，且可以重复</t>
+  </si>
+  <si>
+    <t>练习题1：求100以内3的倍数
+练习题2：求100以内能被3 和7同时整除的数</t>
+  </si>
+  <si>
+    <t>维度操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一类：不修改原始数据维度
+（1）视图变维：数据共享 reshape()、ravel()
+（2）复制变维：数据独立 flatten()
+二类：会修改原始数据的维度
+（3）就地变维：直接改变原数组对象 的维度，不返回新数组
+a.shape = (2, 4)\a.resize(2, 2, 2)
+</t>
+  </si>
+  <si>
+    <t>组合与拆分</t>
+  </si>
+  <si>
+    <t>垂直方向：
+水平方向的：
+深度方向的：</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>一组数组——Series</t>
+  </si>
+  <si>
+    <t>创建</t>
+  </si>
+  <si>
+    <t>s = pd.Series()
+data = np.array(['张三','李四','王五','赵六'])
+s = pd.Series(data)
+s = pd.Series(data,index=['100','101','102','103'])</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> （1）位置 索引
+    0 1 2 3 4 5 6 7 8 
+ （2）标签 索引
+    zs ls ww zl
+ （3）没有反向索引</t>
+  </si>
+  <si>
+    <t>Series常用属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1.values  所有值，返回 一个 ndarray  #只要值
+s1.index   所有索引，#只要索引
+s1.dtype # 数据类型
+s1.size  # 元素个数
+s1.ndm  # 固定返回1
+s1.shape # 返回 (n,) ，因为它是1维的
+</t>
+  </si>
+  <si>
+    <t>二维数组——DataFrame</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DataFrame 每一行是一个Series，
+ DataFrame 每一列是也是一个Series，</t>
+  </si>
+  <si>
+    <t>pd.DataFrame()</t>
+  </si>
+  <si>
+    <t>DataFrame- 常用属性</t>
+  </si>
+  <si>
+    <t>axes  返回 行/列标签(index)列表 //索引有2个维度
+  //和axis有点像
+columns  //返回列标签
+index  //返回行标签
+dtypes  //返回每列的元素类型， 因为列与列可以不同，返回 Series
+empty  //空判断
+ndim  //查看维度，默认2
+size   //元素个数，如果NaN也算一个元素
+values  //返回ndarray 数据
+head(n)  //返回前n行, n默认是5
+tail(n)  //返回最后n行, n默认是5</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 数值型:整数、float
+ 类别型：字符串</t>
+  </si>
+  <si>
+    <t>数据访问</t>
+  </si>
+  <si>
+    <t>增、删、改、查</t>
+  </si>
+  <si>
+    <t>数据加载与输出</t>
+  </si>
+  <si>
+    <t>数据加载：从文件中加载数据的方法</t>
+  </si>
+  <si>
+    <t>read_csv
+excel
+html
+json</t>
+  </si>
+  <si>
+    <t>数据输出：能加载，当然也能保存</t>
+  </si>
+  <si>
+    <t>dataFrame.to_csv()</t>
+  </si>
+  <si>
+    <t>matplotlib</t>
+  </si>
+  <si>
+    <t>LaTax 表达式</t>
+  </si>
+  <si>
+    <t>数学书上面的公式 排版语法 就是 LaTax 表达式。
+在  matplotlib 中是支持  LaTax 表达式语法的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  \hat{a}  //预测值
+  \bar{a}  //平均值
+  \vec{a}  //向量
+  //================== 希腊字符
+  \alpha
+  \beta
+  \gamma
+  \delta
+  \epsilon
+  \pi
+  //================== 二元关系符</t>
+  </si>
+  <si>
+    <t>窗口</t>
+  </si>
+  <si>
+    <t>当我们点击 "运行" 的时候，它弹出来一个窗口，名字叫 "Figure1"
+在窗口中绘制图形，所以它是有 "窗口的概念"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plt.figure(
+  'sub-fig',   #窗口标题栏文本
+  figsize=(4, 3),  #窗口大小 &lt;元组&gt; //4指宽、3指度
+  facecolor=''  #图表的背景色 //填充颜色
+ )
+ plt.show()</t>
+  </si>
+  <si>
+    <t>子图</t>
+  </si>
+  <si>
+    <t>在一个窗口里面画多张图表</t>
+  </si>
+  <si>
+    <t>子图布局
+（1）矩阵式布局
+（2）网格式布局
+（3）自由式布局</t>
+  </si>
+  <si>
+    <t>图形的样式</t>
+  </si>
+  <si>
+    <t>实线、虚线、颜色、图例、显示范围、刻度、平面坐标、特殊点、点的形状、等。</t>
+  </si>
+  <si>
+    <t>基础图</t>
+  </si>
+  <si>
+    <t>直线、线段、正、余弦等等。</t>
+  </si>
+  <si>
+    <t>np.sin(x)
+np.cos(x)</t>
+  </si>
+  <si>
+    <t>成型图-散点图</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  把 “一个样本” 做成点画在 图当中。
+  散点图，可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查看整体的分布状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>plt.scatter</t>
+  </si>
+  <si>
+    <t>成型图-填充图</t>
+  </si>
+  <si>
+    <t>填充图 （用的少，了解即可）</t>
+  </si>
+  <si>
+    <t>plt.fill_between</t>
+  </si>
+  <si>
+    <t>成型图-柱状图、条形图</t>
+  </si>
+  <si>
+    <t>条形图 （用的比较多）</t>
+  </si>
+  <si>
+    <t>plt.bar</t>
+  </si>
+  <si>
+    <t>成型图-直方图</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 和柱状图很象
+ 但直方图x轴是一个区间
+ 它可以统计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前数据的一个分布状态</t>
+    </r>
+  </si>
+  <si>
+    <t>plt.hist</t>
   </si>
   <si>
     <t>集合学习</t>
@@ -93,9 +913,6 @@
   <si>
     <t>要按照类别，等比划分，“测试集”和“训练集”
  stratify=y #按照 "y值(类别)"进行等比划分</t>
-  </si>
-  <si>
-    <t>机器学习分类</t>
   </si>
   <si>
     <t>基于“模型的学习”</t>
@@ -639,74 +1456,6 @@
     <t>聚类，可以做预测、推荐</t>
   </si>
   <si>
-    <t>数据预处理</t>
-  </si>
-  <si>
-    <t>数字类型</t>
-  </si>
-  <si>
-    <t>（1）均值移除</t>
-  </si>
-  <si>
-    <t>（2）范围缩放</t>
-  </si>
-  <si>
-    <t>（3）二值化</t>
-  </si>
-  <si>
-    <t>（4）标签编码</t>
-  </si>
-  <si>
-    <t>（5）独热编码</t>
-  </si>
-  <si>
-    <t>图像类型</t>
-  </si>
-  <si>
-    <t>（1）旋转</t>
-  </si>
-  <si>
-    <t>（2）平移</t>
-  </si>
-  <si>
-    <t>（3）放大</t>
-  </si>
-  <si>
-    <t>（4）缩小</t>
-  </si>
-  <si>
-    <t>（5）二值化</t>
-  </si>
-  <si>
-    <t>（6）灰度化</t>
-  </si>
-  <si>
-    <t>文本</t>
-  </si>
-  <si>
-    <t>机器学习</t>
-  </si>
-  <si>
-    <t>（1）词频逆文档频率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  如：
-         国王 king    he
-            女王 queen   she</t>
-  </si>
-  <si>
-    <t>（2）词模型</t>
-  </si>
-  <si>
-    <t>（3）共线矩阵</t>
-  </si>
-  <si>
-    <t>（4）等等</t>
-  </si>
-  <si>
-    <t>（5）词嵌入、词向量，把词转成数值类型的表示，</t>
-  </si>
-  <si>
     <t>聚类业务</t>
   </si>
   <si>
@@ -738,6 +1487,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">简单任务：精度（准确率）、错误率。
 </t>
     </r>
@@ -767,6 +1523,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>（针对每一种类别）</t>
     </r>
     <r>
@@ -797,6 +1561,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">分类报告：
 </t>
     </r>
@@ -890,6 +1661,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">网格搜索
 （其中也包括交叉验证）
 </t>
@@ -928,14 +1706,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +1734,14 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1115,7 +1901,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,6 +1923,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,7 +2137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1388,10 +2198,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1518,137 +2361,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1689,10 +2532,247 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1700,125 +2780,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2168,344 +3161,839 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="B6:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.8495575221239" customWidth="1"/>
-    <col min="2" max="2" width="26.4070796460177" customWidth="1"/>
-    <col min="3" max="3" width="53.3274336283186" customWidth="1"/>
-    <col min="4" max="4" width="60.1238938053097" customWidth="1"/>
-    <col min="5" max="5" width="49.1238938053097" customWidth="1"/>
-    <col min="6" max="6" width="50.3185840707965" customWidth="1"/>
+    <col min="2" max="2" width="27.8938053097345" customWidth="1"/>
+    <col min="3" max="3" width="15.6283185840708" customWidth="1"/>
+    <col min="4" max="4" width="77.3628318584071" customWidth="1"/>
+    <col min="5" max="5" width="58.1858407079646" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="6" ht="40.5" spans="2:5">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="8" ht="27" spans="2:5">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" ht="45" customHeight="1" spans="1:6">
-      <c r="A10" s="47" t="s">
+    </row>
+    <row r="10" ht="81" spans="2:5">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" ht="44" customHeight="1" spans="1:6">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48" t="s">
+    </row>
+    <row r="11" ht="40.5" spans="2:5">
+      <c r="B11" s="6"/>
+      <c r="C11" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="12" ht="57" customHeight="1" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="D11" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E11" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="12" ht="94.5" spans="2:5">
+      <c r="B12" s="6"/>
+      <c r="C12" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="51"/>
-    </row>
-    <row r="13" ht="73" customHeight="1" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="E12" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5" t="s">
+    </row>
+    <row r="13" ht="58" customHeight="1" spans="2:9">
+      <c r="B13" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" ht="67" customHeight="1" spans="1:6">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="C13" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="53" t="s">
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="I13" s="106"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:5">
+      <c r="B14" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B6:B12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D9:G13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="25.5575221238938" customWidth="1"/>
+    <col min="6" max="6" width="29.070796460177" customWidth="1"/>
+    <col min="7" max="7" width="50.9115044247788" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" ht="40.5" spans="4:7">
+      <c r="D9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="4:7">
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="4:7">
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A13:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="A13:G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.3097345132743" customWidth="1"/>
+    <col min="3" max="4" width="17.7610619469027" customWidth="1"/>
+    <col min="5" max="5" width="44.9380530973451" customWidth="1"/>
+    <col min="6" max="6" width="17.7610619469027" customWidth="1"/>
+    <col min="7" max="7" width="53.4778761061947" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" ht="27" spans="1:7">
+      <c r="A13" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="B13" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="46"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="53"/>
-      <c r="B16" s="5" t="s">
+      <c r="C13" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="D13" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="E13" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="F13" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="G13" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:7">
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="G14" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+    </row>
+    <row r="15" ht="85" customHeight="1" spans="1:7">
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="F15" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+      <c r="G15" s="93"/>
+    </row>
+    <row r="16" ht="40.5" spans="1:7">
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D16" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="86"/>
+      <c r="B17" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C17" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="86"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="86"/>
+      <c r="B19" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="86"/>
+      <c r="B21" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-    </row>
-    <row r="26" ht="27" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
+      <c r="C21" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D21" s="78"/>
+      <c r="E21" s="94" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="52"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46" t="s">
+      <c r="F21" s="78" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14" t="s">
+      <c r="G21" s="78"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="86"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="G22" s="78"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="86"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="78" t="s">
         <v>46</v>
       </c>
+      <c r="G23" s="78"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="86"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="78"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="86"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="86"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="86"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="86"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="86"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="86"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A26"/>
+  <mergeCells count="11">
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A13:A30"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E21:E25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B5:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="20.9823008849558" customWidth="1"/>
+    <col min="4" max="4" width="55.1592920353982" customWidth="1"/>
+    <col min="5" max="5" width="72.4159292035398" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="67.5" spans="2:5">
+      <c r="B5" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" ht="94.5" spans="2:5">
+      <c r="B6" s="79"/>
+      <c r="C6" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" ht="135" spans="2:5">
+      <c r="B7" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" ht="94.5" spans="2:5">
+      <c r="B8" s="83"/>
+      <c r="C8" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="2:5">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" ht="189" spans="2:5">
+      <c r="B10" s="83"/>
+      <c r="C10" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.3097345132743" customWidth="1"/>
+    <col min="4" max="4" width="13.5752212389381" customWidth="1"/>
+    <col min="5" max="5" width="34.3893805309735" customWidth="1"/>
+    <col min="6" max="6" width="31.5398230088496" customWidth="1"/>
+    <col min="7" max="7" width="34.646017699115" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="67.5" spans="2:7">
+      <c r="B3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="2:7">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" ht="175.5" spans="2:7">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="2:7">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" ht="121.5" spans="2:7">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="78"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="78"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="69"/>
+      <c r="G18" s="78"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="69"/>
+      <c r="G19" s="78"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="69"/>
+      <c r="G20" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2513,23 +4001,673 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.8495575221239" customWidth="1"/>
+    <col min="2" max="2" width="58.0176991150442" customWidth="1"/>
+    <col min="3" max="3" width="70.4247787610619" customWidth="1"/>
+    <col min="4" max="4" width="60.1238938053097" customWidth="1"/>
+    <col min="5" max="5" width="49.1238938053097" customWidth="1"/>
+    <col min="6" max="6" width="50.3185840707965" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="41" customHeight="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" ht="83" customHeight="1" spans="1:4">
+      <c r="A2" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+    </row>
+    <row r="8" ht="87" customHeight="1" spans="1:4">
+      <c r="A8" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" ht="76" customHeight="1" spans="1:4">
+      <c r="A9" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+    </row>
+    <row r="10" ht="86" customHeight="1" spans="1:4">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="49"/>
+    </row>
+    <row r="11" ht="27" spans="1:4">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="49"/>
+    </row>
+    <row r="12" ht="86" customHeight="1" spans="1:4">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" ht="160" customHeight="1" spans="1:4">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="49"/>
+    </row>
+    <row r="14" ht="86" customHeight="1" spans="1:4">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="49"/>
+    </row>
+    <row r="15" ht="148.5" spans="1:4">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" ht="182" customHeight="1" spans="1:4">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" ht="94.5" spans="1:4">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" ht="40.5" spans="1:4">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="49"/>
+    </row>
+    <row r="19" ht="94" customHeight="1" spans="1:4">
+      <c r="A19" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" ht="96" customHeight="1" spans="1:4">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" ht="91" customHeight="1" spans="1:4">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" ht="111" customHeight="1" spans="1:4">
+      <c r="A22" s="53"/>
+      <c r="B22" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="55"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" ht="162" spans="1:4">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" ht="47" customHeight="1" spans="1:4">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" ht="31" customHeight="1" spans="1:4">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" ht="56" customHeight="1" spans="1:4">
+      <c r="A27" s="53"/>
+      <c r="B27" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" ht="33" customHeight="1" spans="1:4">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" ht="148.5" spans="1:4">
+      <c r="A29" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" ht="132" customHeight="1" spans="1:4">
+      <c r="A30" s="59"/>
+      <c r="B30" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" ht="66" customHeight="1" spans="1:4">
+      <c r="A31" s="59"/>
+      <c r="B31" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="59"/>
+      <c r="B32" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="58"/>
+    </row>
+    <row r="33" ht="27" spans="1:4">
+      <c r="A33" s="59"/>
+      <c r="B33" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" ht="34" customHeight="1" spans="1:4">
+      <c r="A34" s="59"/>
+      <c r="B34" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="59"/>
+      <c r="B35" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="59"/>
+      <c r="B36" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" ht="40.5" spans="1:4">
+      <c r="A37" s="61"/>
+      <c r="B37" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="57"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="57"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="57"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="57"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="57"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="57"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="57"/>
+    </row>
+    <row r="45" ht="57" customHeight="1" spans="1:5">
+      <c r="A45" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" ht="73" customHeight="1" spans="1:6">
+      <c r="A46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" ht="67" customHeight="1" spans="1:6">
+      <c r="A47" s="7"/>
+      <c r="B47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="62"/>
+      <c r="B49" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="64"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="64"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="64"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="64"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="64"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="64"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="64"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="64"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="64"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" ht="27" spans="1:3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F24"/>
@@ -2548,311 +4686,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="A1" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="41"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" ht="94.5" spans="1:6">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>55</v>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:6">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="41"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="41"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>64</v>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="38"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" ht="67.5" spans="1:6">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="38"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" ht="31.5" spans="1:6">
-      <c r="A10" s="38"/>
-      <c r="B10" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="38"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="38"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="38"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="38"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="38"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="38"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" ht="67.5" spans="1:6">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="38"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="32"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="38"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="38"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="38"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="38"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="38"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="38"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" ht="54" spans="1:6">
-      <c r="A19" s="38"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="38"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="38"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="38"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" ht="54" spans="1:6">
-      <c r="A21" s="38"/>
-      <c r="B21" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:6">
-      <c r="A22" s="38"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="40"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="32"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" ht="40.5" spans="1:6">
-      <c r="A23" s="38"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>99</v>
+      <c r="A23" s="32"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="24" ht="67.5" spans="1:6">
-      <c r="A24" s="38"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>101</v>
+      <c r="A24" s="32"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2878,7 +5016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:E19"/>
@@ -2897,203 +5035,203 @@
   </cols>
   <sheetData>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="26"/>
+      <c r="A2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="28"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="30"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" ht="67.5" spans="1:5">
-      <c r="A4" s="28"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="26"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" ht="37" customHeight="1" spans="1:5">
-      <c r="A5" s="28"/>
-      <c r="B5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>113</v>
+      <c r="A5" s="24"/>
+      <c r="B5" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="28"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>115</v>
+      <c r="A6" s="24"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="1:5">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="26" t="s">
-        <v>116</v>
+      <c r="A7" s="24"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="22" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="26" t="s">
-        <v>117</v>
+      <c r="A8" s="24"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:5">
-      <c r="A9" s="28"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="26" t="s">
-        <v>118</v>
+      <c r="A9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="26"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>120</v>
+      <c r="A11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="29" t="s">
-        <v>95</v>
+      <c r="A12" s="24"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="25" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="29" t="s">
-        <v>121</v>
+      <c r="A13" s="24"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="25" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="29" t="s">
-        <v>122</v>
+      <c r="A14" s="24"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="25" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="15" ht="81" spans="1:5">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>125</v>
+      <c r="A15" s="24"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="28"/>
-      <c r="B16" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="27"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" ht="81" spans="1:5">
-      <c r="A17" s="28"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>130</v>
+      <c r="A17" s="24"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="18" ht="188" customHeight="1" spans="1:5">
-      <c r="A18" s="28"/>
-      <c r="B18" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>134</v>
+      <c r="A18" s="24"/>
+      <c r="B18" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="19" ht="81" spans="1:5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>136</v>
+      <c r="A19" s="31"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3115,7 +5253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="E3:I10"/>
@@ -3134,94 +5272,94 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:9">
-      <c r="E3" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="14"/>
+      <c r="E3" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="5:9">
-      <c r="E4" s="20"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="5:9">
-      <c r="E5" s="20"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="5:9">
-      <c r="E6" s="20"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" ht="132" customHeight="1" spans="5:9">
-      <c r="E7" s="20"/>
-      <c r="F7" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>147</v>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="8" ht="51" customHeight="1" spans="5:9">
-      <c r="E8" s="20"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="16"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" ht="128" customHeight="1" spans="5:9">
-      <c r="E9" s="20"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>152</v>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="5:9">
-      <c r="E10" s="20"/>
-      <c r="F10" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3236,186 +5374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="E19:I34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="11.3097345132743" customWidth="1"/>
-    <col min="8" max="8" width="49.0884955752212" customWidth="1"/>
-    <col min="9" max="9" width="31.5398230088496" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="19" spans="5:8">
-      <c r="E19" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8">
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8">
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8">
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8">
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8">
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8">
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8">
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8">
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8">
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8">
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9">
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9">
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="5:9">
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="I34" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E19:E34"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="I30:I34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.25"/>
@@ -3436,37 +5395,37 @@
     <row r="7" ht="130" customHeight="1" spans="5:8">
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>178</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" ht="54" spans="5:8">
       <c r="E8" s="6" t="s">
-        <v>179</v>
+        <v>335</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" ht="54" spans="5:8">
       <c r="E9" s="6"/>
       <c r="F9" s="8" t="s">
-        <v>182</v>
+        <v>338</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>183</v>
+        <v>339</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>184</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" ht="121.5" spans="5:8">
@@ -3474,7 +5433,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="1"/>
       <c r="H10" s="11" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" ht="79" customHeight="1" spans="5:8">
@@ -3482,7 +5441,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5" t="s">
-        <v>186</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" ht="54" customHeight="1" spans="5:8">
@@ -3490,7 +5449,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="1"/>
       <c r="H12" s="9" t="s">
-        <v>187</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" ht="55" customHeight="1" spans="5:8">
@@ -3498,19 +5457,19 @@
       <c r="F13" s="12"/>
       <c r="G13" s="1"/>
       <c r="H13" s="5" t="s">
-        <v>188</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="5:8">
       <c r="E14" s="6"/>
       <c r="F14" s="1" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>190</v>
+        <v>346</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" ht="81" spans="5:8">
@@ -3518,7 +5477,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="5" t="s">
-        <v>192</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" ht="27" spans="5:8">
@@ -3526,7 +5485,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="5" t="s">
-        <v>193</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3540,89 +5499,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D9:G13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="5" max="5" width="25.5575221238938" customWidth="1"/>
-    <col min="6" max="6" width="29.070796460177" customWidth="1"/>
-    <col min="7" max="7" width="50.9115044247788" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" ht="67.5" spans="4:7">
-      <c r="D9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" ht="67.5" spans="4:7">
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="1"/>
-      <c r="E12" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" ht="54" spans="4:7">
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>